--- a/ABC Parts List-2.xlsx
+++ b/ABC Parts List-2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caleb Fitzgerald\Dropbox\Personal\School\UW-Madison\Gilroy Lab\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/simongilroy/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E4982B-F28A-48DB-B22E-B2F0CE415C81}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7654DD3-5FD9-5D4B-A227-8C17D56C17EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5400" yWindow="1275" windowWidth="24045" windowHeight="10950" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1280" windowWidth="24040" windowHeight="10960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Materials List" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="89">
   <si>
     <t>Qty</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t xml:space="preserve">80/20 1.00” X 2.00” T-Slotted Profile - Six Open T-Slots </t>
+  </si>
+  <si>
+    <t>Note: 80/20 is sold in unit lengths of inches</t>
   </si>
 </sst>
 </file>
@@ -982,20 +985,20 @@
       <selection pane="bottomLeft" activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
     <col min="2" max="2" width="77" customWidth="1"/>
-    <col min="3" max="3" width="69.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="69.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
@@ -1006,14 +1009,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="12"/>
       <c r="B3" s="11" t="s">
         <v>70</v>
       </c>
       <c r="C3" s="12"/>
     </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="27">
         <f>'80-20 Cut List'!D10</f>
         <v>918.4079999999999</v>
@@ -1025,7 +1028,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="27">
         <v>333.72</v>
       </c>
@@ -1036,7 +1039,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8">
         <v>15</v>
       </c>
@@ -1047,7 +1050,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8">
         <v>12</v>
       </c>
@@ -1058,7 +1061,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="8">
         <v>17</v>
       </c>
@@ -1069,7 +1072,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8">
         <v>6</v>
       </c>
@@ -1080,7 +1083,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="8">
         <v>1</v>
       </c>
@@ -1091,7 +1094,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1102,7 +1105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="9">
         <v>201</v>
       </c>
@@ -1113,7 +1116,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="8">
         <v>201</v>
       </c>
@@ -1124,7 +1127,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="10">
         <v>2</v>
       </c>
@@ -1135,14 +1138,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="12"/>
       <c r="B15" s="11" t="s">
         <v>69</v>
       </c>
       <c r="C15" s="12"/>
     </row>
-    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="8">
         <v>604</v>
       </c>
@@ -1153,7 +1156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="8">
         <v>15</v>
       </c>
@@ -1164,7 +1167,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="8">
         <v>12</v>
       </c>
@@ -1175,7 +1178,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="8">
         <v>17</v>
       </c>
@@ -1186,7 +1189,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="8">
         <v>6</v>
       </c>
@@ -1197,7 +1200,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="8">
         <v>1</v>
       </c>
@@ -1208,7 +1211,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="8">
         <v>10</v>
       </c>
@@ -1219,7 +1222,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="9">
         <v>201</v>
       </c>
@@ -1230,7 +1233,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="8">
         <v>201</v>
       </c>
@@ -1241,7 +1244,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="10">
         <v>2</v>
       </c>
@@ -1252,14 +1255,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="13"/>
       <c r="B26" s="14" t="s">
         <v>72</v>
       </c>
       <c r="C26" s="13"/>
     </row>
-    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="15">
         <v>4</v>
       </c>
@@ -1270,7 +1273,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="15">
         <v>8</v>
       </c>
@@ -1281,7 +1284,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="15">
         <v>13</v>
       </c>
@@ -1292,7 +1295,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="15">
         <v>2</v>
       </c>
@@ -1303,7 +1306,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="15">
         <v>2</v>
       </c>
@@ -1314,7 +1317,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="15">
         <v>2</v>
       </c>
@@ -1325,7 +1328,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="15">
         <v>1</v>
       </c>
@@ -1336,7 +1339,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="15">
         <v>4</v>
       </c>
@@ -1347,14 +1350,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="13"/>
       <c r="B35" s="14" t="s">
         <v>73</v>
       </c>
       <c r="C35" s="13"/>
     </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="16">
         <v>1</v>
       </c>
@@ -1365,7 +1368,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="16">
         <v>1</v>
       </c>
@@ -1376,7 +1379,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="16">
         <v>1</v>
       </c>
@@ -1387,7 +1390,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="16">
         <v>1</v>
       </c>
@@ -1398,7 +1401,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="16">
         <v>1</v>
       </c>
@@ -1409,7 +1412,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="16">
         <v>1</v>
       </c>
@@ -1420,7 +1423,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="16">
         <v>1</v>
       </c>
@@ -1431,7 +1434,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="16">
         <v>1</v>
       </c>
@@ -1442,7 +1445,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="16">
         <v>1</v>
       </c>
@@ -1453,7 +1456,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="16">
         <v>3</v>
       </c>
@@ -1464,14 +1467,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="13"/>
       <c r="B46" s="14" t="s">
         <v>74</v>
       </c>
       <c r="C46" s="13"/>
     </row>
-    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="17">
         <v>10</v>
       </c>
@@ -1482,7 +1485,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="17">
         <v>10</v>
       </c>
@@ -1493,14 +1496,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="13"/>
       <c r="B49" s="14" t="s">
         <v>62</v>
       </c>
       <c r="C49" s="13"/>
     </row>
-    <row r="50" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="19">
         <v>5</v>
       </c>
@@ -1511,7 +1514,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A51" s="21">
         <v>10</v>
       </c>
@@ -1522,972 +1525,972 @@
         <v>61</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="53" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="54" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="55" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="58" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="59" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="60" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="61" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="62" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="63" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="1:3" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="65" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="66" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="67" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="68" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="69" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="70" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="71" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="72" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="73" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="74" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="75" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="76" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="77" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="78" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="79" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="80" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="81" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="82" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="83" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="84" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="85" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="86" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="87" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="88" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="89" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="90" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="91" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="92" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="93" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="94" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="95" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="96" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="97" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="98" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="99" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="100" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="101" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="102" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="103" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="104" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="105" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="106" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="107" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="108" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="109" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="110" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="111" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="112" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="113" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="114" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="115" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="116" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="117" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="118" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="119" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="120" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="121" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="122" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="123" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="124" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="125" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="126" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="127" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="128" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="129" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="130" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="131" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="132" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="133" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="134" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="135" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="136" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="137" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="138" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="139" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="140" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="141" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="142" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="143" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="144" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="145" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="146" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="147" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="148" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="149" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="150" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="151" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="152" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="153" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="154" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="155" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="156" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="157" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="158" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="159" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="160" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="161" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="162" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="163" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="164" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="165" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="166" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="167" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="168" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="169" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="170" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="171" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="172" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="173" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="174" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="175" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="176" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="177" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="178" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="179" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="180" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="181" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="182" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="183" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="184" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="185" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="186" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="187" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="188" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="189" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="190" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="191" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="192" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="193" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="194" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="195" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="196" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="197" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="198" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="199" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="200" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="201" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="202" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="203" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="204" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="205" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="206" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="207" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="208" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="209" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="210" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="211" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="212" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="213" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="214" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="215" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="216" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="217" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="218" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="219" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="220" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="221" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="222" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="223" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="224" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="225" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="226" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="227" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="228" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="229" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="230" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="231" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="232" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="233" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="234" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="235" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="236" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="237" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="238" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="239" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="240" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="241" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="242" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="243" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="244" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="245" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="246" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="247" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="248" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="249" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="250" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="251" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="252" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="253" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="254" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="255" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="256" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="257" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="258" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="259" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="260" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="261" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="262" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="263" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="264" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="265" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="266" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="267" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="268" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="269" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="270" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="271" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="272" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="273" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="274" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="275" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="276" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="277" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="278" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="279" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="280" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="281" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="282" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="283" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="284" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="285" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="286" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="287" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="288" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="289" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="290" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="291" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="292" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="293" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="294" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="295" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="296" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="297" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="298" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="299" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="300" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="301" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="302" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="303" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="304" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="305" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="306" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="307" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="308" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="309" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="310" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="311" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="312" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="313" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="314" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="315" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="316" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="317" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="318" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="319" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="320" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="321" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="322" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="323" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="324" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="325" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="326" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="327" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="328" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="329" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="330" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="331" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="332" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="333" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="334" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="335" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="336" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="337" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="338" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="339" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="340" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="341" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="342" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="343" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="344" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="345" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="346" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="347" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="348" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="349" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="350" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="351" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="352" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="353" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="354" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="355" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="356" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="357" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="358" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="359" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="360" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="361" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="362" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="363" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="364" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="365" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="366" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="367" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="368" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="369" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="370" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="371" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="372" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="373" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="374" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="375" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="376" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="377" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="378" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="379" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="380" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="381" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="382" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="383" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="384" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="385" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="386" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="387" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="388" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="389" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="390" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="391" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="392" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="393" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="394" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="395" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="396" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="397" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="398" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="399" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="400" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="401" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="402" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="403" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="404" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="405" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="406" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="407" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="408" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="409" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="410" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="411" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="412" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="413" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="414" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="415" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="416" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="417" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="418" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="419" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="420" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="421" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="422" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="423" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="424" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="425" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="426" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="427" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="428" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="429" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="430" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="431" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="432" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="433" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="434" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="435" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="436" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="437" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="438" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="439" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="440" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="441" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="442" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="443" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="444" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="445" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="446" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="447" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="448" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="449" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="450" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="451" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="452" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="453" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="454" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="455" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="456" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="457" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="458" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="459" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="460" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="461" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="462" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="463" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="464" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="465" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="466" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="467" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="468" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="469" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="470" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="471" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="472" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="473" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="474" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="475" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="476" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="477" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="478" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="479" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="480" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="481" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="482" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="483" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="484" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="485" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="486" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="487" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="488" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="489" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="490" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="491" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="492" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="493" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="494" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="495" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="496" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="497" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="498" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="499" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="500" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="501" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="502" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="503" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="504" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="505" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="506" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="507" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="508" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="509" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="510" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="511" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="512" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="513" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="514" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="515" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="516" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="517" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="518" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="519" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="520" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="521" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="522" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="523" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="524" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="525" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="526" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="527" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="528" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="529" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="530" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="531" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="532" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="533" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="534" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="535" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="536" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="537" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="538" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="539" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="540" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="541" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="542" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="543" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="544" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="545" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="546" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="547" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="548" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="549" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="550" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="551" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="552" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="553" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="554" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="555" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="556" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="557" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="558" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="559" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="560" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="561" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="562" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="563" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="564" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="565" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="566" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="567" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="568" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="569" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="570" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="571" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="572" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="573" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="574" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="575" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="576" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="577" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="578" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="579" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="580" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="581" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="582" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="583" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="584" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="585" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="586" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="587" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="588" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="589" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="590" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="591" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="592" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="593" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="594" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="595" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="596" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="597" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="598" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="599" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="600" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="601" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="602" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="603" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="604" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="605" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="606" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="607" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="608" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="609" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="610" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="611" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="612" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="613" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="614" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="615" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="616" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="617" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="618" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="619" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="620" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="621" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="622" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="623" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="624" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1001" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1002" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1003" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1004" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1005" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1006" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1007" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1008" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1009" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1010" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1011" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1012" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1013" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1014" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1015" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1016" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="1017" ht="12.75" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="1:3" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="53" spans="1:3" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="54" spans="1:3" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="55" spans="1:3" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="56" spans="1:3" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="57" spans="1:3" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="58" spans="1:3" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="59" spans="1:3" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="60" spans="1:3" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="61" spans="1:3" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="62" spans="1:3" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="63" spans="1:3" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="64" spans="1:3" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="514" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="515" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="516" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="517" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="518" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="519" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="520" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="521" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="522" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="523" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="524" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="525" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="526" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="527" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="528" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="529" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="530" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="531" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="532" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="533" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="534" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="535" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="536" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="537" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="538" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="539" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="540" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="541" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="542" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="543" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="544" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="545" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="546" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="547" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="548" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="549" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="550" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="551" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="552" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="553" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="554" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="555" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="556" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="557" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="558" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="559" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="560" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="561" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="562" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="563" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="564" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="565" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="566" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="567" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="568" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="569" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="570" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="571" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="572" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="573" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="574" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="575" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="576" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="577" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="578" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="579" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="580" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="581" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="582" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="583" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="584" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="585" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="586" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="587" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="588" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="589" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="590" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="591" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="592" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="593" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="594" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="595" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="596" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="597" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="598" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="599" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="600" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="601" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="602" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="603" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="604" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="605" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="606" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="607" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="608" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="609" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="610" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="611" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="612" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="613" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="614" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="615" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="616" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="617" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="618" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="619" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="620" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="621" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="622" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="623" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="624" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="625" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="626" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="627" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="628" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="629" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="630" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="631" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="632" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="633" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="634" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="635" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="636" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="637" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="638" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="639" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="640" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="641" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="642" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="643" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="644" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="645" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="646" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="647" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="648" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="649" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="650" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="651" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="652" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="653" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="654" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="655" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="656" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="657" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="658" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="659" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="660" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="661" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="662" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="663" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="664" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="665" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="666" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="667" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="668" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="669" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="670" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="671" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="672" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="673" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="674" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="675" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="676" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="677" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="678" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="679" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="680" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="681" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="682" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="683" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="684" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="685" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="686" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="687" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="688" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="689" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="690" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="691" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="692" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="693" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="694" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="695" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="696" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="697" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="698" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="699" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="700" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="701" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="702" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="703" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="704" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="705" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="706" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="707" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="708" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="709" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="710" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="711" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="712" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="713" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="714" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="715" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="716" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="717" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="718" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="719" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="720" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="721" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="722" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="723" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="724" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="725" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="726" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="727" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="728" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="729" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="730" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="731" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="732" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="733" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="734" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="735" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="736" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="737" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="738" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="739" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="740" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="741" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="742" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="743" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="744" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="745" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="746" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="747" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="748" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="749" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="750" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="751" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="752" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="753" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="754" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="755" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="756" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="757" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="758" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="759" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="760" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="761" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="762" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="763" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="764" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="765" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="766" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="767" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="768" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="769" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="770" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="771" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="772" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="773" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="774" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="775" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="776" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="777" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="778" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="779" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="780" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="781" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="782" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="783" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="784" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="785" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="786" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="787" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="788" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="789" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="790" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="791" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="792" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="793" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="794" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="795" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="796" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="797" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="798" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="799" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="800" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="801" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="802" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="803" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="804" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="805" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="806" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="807" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="808" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="809" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="810" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="811" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="812" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="813" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="814" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="815" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="816" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="817" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="818" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="819" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="820" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="821" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="822" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="823" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="824" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="825" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="826" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="827" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="828" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="829" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="830" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="831" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="832" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="833" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="834" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="835" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="836" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="837" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="838" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="839" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="840" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="841" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="842" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="843" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="844" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="845" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="846" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="847" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="848" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="849" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="850" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="851" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="852" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="853" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="854" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="855" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="856" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="857" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="858" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="859" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="860" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="861" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="862" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="863" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="864" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="865" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="866" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="867" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="868" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="869" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="870" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="871" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="872" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="873" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="874" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="875" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="876" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="877" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="878" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="879" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="880" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="881" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="882" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="883" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="884" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="885" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="886" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="887" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="888" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="889" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="890" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="891" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="892" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="893" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="894" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="895" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="896" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="897" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="898" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="899" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="900" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="901" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="902" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="903" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="904" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="905" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="906" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="907" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="908" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="909" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="910" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="911" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="912" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="913" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="914" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="915" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="916" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="917" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="918" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="919" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="920" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="921" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="922" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="923" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="924" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="925" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="926" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="927" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="928" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="929" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="930" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="931" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="932" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="933" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="934" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="935" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="936" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="937" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="938" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="939" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="940" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="941" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="942" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="943" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="944" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="945" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="946" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="947" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="948" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="949" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="950" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="951" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="952" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="953" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="954" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="955" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="956" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="957" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="958" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="959" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="960" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="961" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="962" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="963" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="964" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="965" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="966" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="967" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="968" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="969" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="970" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="971" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="972" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="973" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="974" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="975" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="976" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="977" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="978" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="979" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="980" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="981" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="982" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="983" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="984" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="985" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="986" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="987" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="988" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="989" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="990" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="991" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="992" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="993" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="994" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="995" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="996" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="997" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="998" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="999" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="1000" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="1001" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="1002" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="1003" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="1004" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="1005" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="1006" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="1007" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="1008" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="1009" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="1010" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="1011" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="1012" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="1013" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="1014" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="1015" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="1016" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="1017" ht="13" x14ac:dyDescent="0.15"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -2543,32 +2546,35 @@
   <dimension ref="A1:E993"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <selection activeCell="E113" sqref="E113"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="77.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="77.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" customWidth="1"/>
-    <col min="5" max="5" width="22.28515625" customWidth="1"/>
+    <col min="4" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B1" s="7" t="s">
         <v>65</v>
       </c>
+      <c r="C1" t="s">
+        <v>88</v>
+      </c>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B2" s="2"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -2583,7 +2589,7 @@
       </c>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26">
         <v>4</v>
       </c>
@@ -2599,7 +2605,7 @@
       </c>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="26">
         <v>4</v>
       </c>
@@ -2615,7 +2621,7 @@
       </c>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="26">
         <v>4</v>
       </c>
@@ -2631,7 +2637,7 @@
       </c>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="26">
         <v>7</v>
       </c>
@@ -2647,7 +2653,7 @@
       </c>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="26">
         <v>4</v>
       </c>
@@ -2663,7 +2669,7 @@
       </c>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="26">
         <v>4</v>
       </c>
@@ -2679,69 +2685,69 @@
       </c>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D10" s="6">
         <f>SUM(D4:D9)</f>
         <v>918.4079999999999</v>
       </c>
       <c r="E10" s="1"/>
     </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D19" s="5"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="5"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="5"/>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D22" s="5"/>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D24" s="5"/>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D25" s="5"/>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D26" s="5"/>
     </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D29" s="5"/>
     </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D30" s="5"/>
     </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B32" s="2"/>
     </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
         <v>0</v>
       </c>
@@ -2755,7 +2761,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>4</v>
       </c>
@@ -2770,7 +2776,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>4</v>
       </c>
@@ -2785,7 +2791,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>7</v>
       </c>
@@ -2800,7 +2806,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>4</v>
       </c>
@@ -2814,106 +2820,106 @@
         <v>284</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D38" s="6">
         <f>SUM(D34:D37)</f>
         <v>604</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D39" s="5"/>
     </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D40" s="5"/>
     </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D41" s="5"/>
     </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D42" s="5"/>
     </row>
-    <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D43" s="5"/>
     </row>
-    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D44" s="5"/>
     </row>
-    <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D45" s="5"/>
     </row>
-    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D46" s="5"/>
     </row>
-    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D47" s="5"/>
     </row>
-    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D48" s="5"/>
     </row>
-    <row r="49" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D49" s="5"/>
     </row>
-    <row r="50" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D50" s="5"/>
     </row>
-    <row r="51" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D51" s="5"/>
     </row>
-    <row r="52" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D52" s="5"/>
     </row>
-    <row r="53" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D53" s="5"/>
     </row>
-    <row r="54" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D54" s="5"/>
     </row>
-    <row r="55" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D55" s="5"/>
     </row>
-    <row r="56" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D56" s="5"/>
     </row>
-    <row r="57" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D57" s="5"/>
     </row>
-    <row r="58" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D58" s="5"/>
     </row>
-    <row r="59" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D59" s="5"/>
     </row>
-    <row r="60" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D60" s="5"/>
     </row>
-    <row r="61" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D61" s="5"/>
     </row>
-    <row r="62" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D62" s="5"/>
     </row>
-    <row r="63" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D63" s="5"/>
     </row>
-    <row r="64" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D64" s="5"/>
     </row>
-    <row r="65" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D65" s="5"/>
     </row>
-    <row r="66" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D66" s="5"/>
     </row>
-    <row r="67" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D67" s="5"/>
     </row>
-    <row r="68" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B68" s="2"/>
     </row>
-    <row r="69" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
         <v>0</v>
       </c>
@@ -2927,7 +2933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
         <v>4</v>
       </c>
@@ -2942,7 +2948,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
         <v>6</v>
       </c>
@@ -2957,7 +2963,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="72" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
         <v>2</v>
       </c>
@@ -2972,68 +2978,68 @@
         <v>141.72</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D73" s="6">
         <f>SUM(D70:D72)</f>
         <v>333.72</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D74" s="5"/>
     </row>
-    <row r="75" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D75" s="5"/>
     </row>
-    <row r="76" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D76" s="5"/>
     </row>
-    <row r="77" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D77" s="5"/>
     </row>
-    <row r="78" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D78" s="5"/>
     </row>
-    <row r="79" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D79" s="5"/>
     </row>
-    <row r="80" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D80" s="5"/>
     </row>
-    <row r="81" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D81" s="5"/>
     </row>
-    <row r="82" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D82" s="5"/>
     </row>
-    <row r="83" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D83" s="5"/>
     </row>
-    <row r="84" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D84" s="5"/>
     </row>
-    <row r="85" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D85" s="5"/>
     </row>
-    <row r="86" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D86" s="5"/>
     </row>
-    <row r="87" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D87" s="5"/>
     </row>
-    <row r="88" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D88" s="5"/>
     </row>
-    <row r="89" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D89" s="5"/>
     </row>
-    <row r="90" spans="1:4" ht="12.75" x14ac:dyDescent="0.2"/>
-    <row r="91" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" ht="13" x14ac:dyDescent="0.15"/>
+    <row r="91" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A91" s="2" t="s">
         <v>77</v>
       </c>
       <c r="B91" s="2"/>
     </row>
-    <row r="92" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A92" s="2" t="s">
         <v>0</v>
       </c>
@@ -3047,7 +3053,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A93" s="1">
         <v>4</v>
       </c>
@@ -3062,7 +3068,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="94" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
         <v>5</v>
       </c>
@@ -3077,7 +3083,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="95" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
         <v>4</v>
       </c>
@@ -3092,7 +3098,7 @@
         <v>50.52</v>
       </c>
     </row>
-    <row r="96" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
         <v>2</v>
       </c>
@@ -3107,2722 +3113,2722 @@
         <v>111</v>
       </c>
     </row>
-    <row r="97" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D97" s="6">
         <f>SUM(D93:D96)</f>
         <v>351.52</v>
       </c>
     </row>
-    <row r="98" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D98" s="5"/>
     </row>
-    <row r="99" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D99" s="5"/>
     </row>
-    <row r="100" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D100" s="5"/>
     </row>
-    <row r="101" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D101" s="5"/>
     </row>
-    <row r="102" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D102" s="5"/>
     </row>
-    <row r="103" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D103" s="5"/>
     </row>
-    <row r="104" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D104" s="5"/>
     </row>
-    <row r="105" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D105" s="5"/>
     </row>
-    <row r="106" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D106" s="5"/>
     </row>
-    <row r="107" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D107" s="5"/>
     </row>
-    <row r="108" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D108" s="5"/>
     </row>
-    <row r="109" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D109" s="5"/>
     </row>
-    <row r="110" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D110" s="5"/>
     </row>
-    <row r="111" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D111" s="5"/>
     </row>
-    <row r="112" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D112" s="5"/>
     </row>
-    <row r="113" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D113" s="5"/>
     </row>
-    <row r="114" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D114" s="5"/>
     </row>
-    <row r="115" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
     </row>
-    <row r="116" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
     </row>
-    <row r="117" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A117" s="1"/>
       <c r="B117" s="1"/>
       <c r="C117" s="4"/>
       <c r="D117" s="5"/>
     </row>
-    <row r="118" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A118" s="1"/>
       <c r="B118" s="1"/>
       <c r="C118" s="4"/>
       <c r="D118" s="5"/>
     </row>
-    <row r="119" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A119" s="1"/>
       <c r="B119" s="1"/>
       <c r="C119" s="4"/>
       <c r="D119" s="5"/>
     </row>
-    <row r="120" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A120" s="1"/>
       <c r="B120" s="1"/>
       <c r="C120" s="4"/>
       <c r="D120" s="28"/>
     </row>
-    <row r="121" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A121" s="1"/>
       <c r="B121" s="1"/>
       <c r="C121" s="4"/>
       <c r="D121" s="28"/>
     </row>
-    <row r="122" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="A122" s="1"/>
       <c r="B122" s="1"/>
       <c r="C122" s="4"/>
       <c r="D122" s="28"/>
     </row>
-    <row r="123" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D123" s="28"/>
     </row>
-    <row r="124" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D124" s="28"/>
     </row>
-    <row r="125" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D125" s="5"/>
     </row>
-    <row r="126" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D126" s="5"/>
     </row>
-    <row r="127" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D127" s="5"/>
     </row>
-    <row r="128" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D128" s="5"/>
     </row>
-    <row r="129" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D129" s="5"/>
     </row>
-    <row r="130" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D130" s="5"/>
     </row>
-    <row r="131" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D131" s="5"/>
     </row>
-    <row r="132" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D132" s="5"/>
     </row>
-    <row r="133" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D133" s="5"/>
     </row>
-    <row r="134" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D134" s="5"/>
     </row>
-    <row r="135" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D135" s="5"/>
     </row>
-    <row r="136" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D136" s="5"/>
     </row>
-    <row r="137" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D137" s="5"/>
     </row>
-    <row r="138" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D138" s="5"/>
     </row>
-    <row r="139" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D139" s="5"/>
     </row>
-    <row r="140" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D140" s="5"/>
     </row>
-    <row r="141" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D141" s="5"/>
     </row>
-    <row r="142" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D142" s="5"/>
     </row>
-    <row r="143" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D143" s="5"/>
     </row>
-    <row r="144" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D144" s="5"/>
     </row>
-    <row r="145" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D145" s="5"/>
     </row>
-    <row r="146" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D146" s="5"/>
     </row>
-    <row r="147" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D147" s="5"/>
     </row>
-    <row r="148" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D148" s="5"/>
     </row>
-    <row r="149" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D149" s="5"/>
     </row>
-    <row r="150" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D150" s="5"/>
     </row>
-    <row r="151" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D151" s="5"/>
     </row>
-    <row r="152" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D152" s="5"/>
     </row>
-    <row r="153" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D153" s="5"/>
     </row>
-    <row r="154" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D154" s="5"/>
     </row>
-    <row r="155" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D155" s="5"/>
     </row>
-    <row r="156" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D156" s="5"/>
     </row>
-    <row r="157" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D157" s="5"/>
     </row>
-    <row r="158" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D158" s="5"/>
     </row>
-    <row r="159" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D159" s="5"/>
     </row>
-    <row r="160" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D160" s="5"/>
     </row>
-    <row r="161" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D161" s="5"/>
     </row>
-    <row r="162" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D162" s="5"/>
     </row>
-    <row r="163" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D163" s="5"/>
     </row>
-    <row r="164" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D164" s="5"/>
     </row>
-    <row r="165" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D165" s="5"/>
     </row>
-    <row r="166" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D166" s="5"/>
     </row>
-    <row r="167" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D167" s="5"/>
     </row>
-    <row r="168" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D168" s="5"/>
     </row>
-    <row r="169" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D169" s="5"/>
     </row>
-    <row r="170" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D170" s="5"/>
     </row>
-    <row r="171" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D171" s="5"/>
     </row>
-    <row r="172" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D172" s="5"/>
     </row>
-    <row r="173" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D173" s="5"/>
     </row>
-    <row r="174" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D174" s="5"/>
     </row>
-    <row r="175" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D175" s="5"/>
     </row>
-    <row r="176" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D176" s="5"/>
     </row>
-    <row r="177" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D177" s="5"/>
     </row>
-    <row r="178" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D178" s="5"/>
     </row>
-    <row r="179" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D179" s="5"/>
     </row>
-    <row r="180" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D180" s="5"/>
     </row>
-    <row r="181" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D181" s="5"/>
     </row>
-    <row r="182" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D182" s="5"/>
     </row>
-    <row r="183" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D183" s="5"/>
     </row>
-    <row r="184" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D184" s="5"/>
     </row>
-    <row r="185" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D185" s="5"/>
     </row>
-    <row r="186" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D186" s="5"/>
     </row>
-    <row r="187" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D187" s="5"/>
     </row>
-    <row r="188" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D188" s="5"/>
     </row>
-    <row r="189" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D189" s="5"/>
     </row>
-    <row r="190" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D190" s="5"/>
     </row>
-    <row r="191" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D191" s="5"/>
     </row>
-    <row r="192" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D192" s="5"/>
     </row>
-    <row r="193" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D193" s="5"/>
     </row>
-    <row r="194" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D194" s="5"/>
     </row>
-    <row r="195" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D195" s="5"/>
     </row>
-    <row r="196" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D196" s="5"/>
     </row>
-    <row r="197" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D197" s="5"/>
     </row>
-    <row r="198" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D198" s="5"/>
     </row>
-    <row r="199" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D199" s="5"/>
     </row>
-    <row r="200" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D200" s="5"/>
     </row>
-    <row r="201" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D201" s="5"/>
     </row>
-    <row r="202" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D202" s="5"/>
     </row>
-    <row r="203" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D203" s="5"/>
     </row>
-    <row r="204" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D204" s="5"/>
     </row>
-    <row r="205" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="205" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D205" s="5"/>
     </row>
-    <row r="206" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D206" s="5"/>
     </row>
-    <row r="207" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D207" s="5"/>
     </row>
-    <row r="208" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="208" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D208" s="5"/>
     </row>
-    <row r="209" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="209" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D209" s="5"/>
     </row>
-    <row r="210" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="210" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D210" s="5"/>
     </row>
-    <row r="211" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="211" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D211" s="5"/>
     </row>
-    <row r="212" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="212" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D212" s="5"/>
     </row>
-    <row r="213" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="213" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D213" s="5"/>
     </row>
-    <row r="214" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="214" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D214" s="5"/>
     </row>
-    <row r="215" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="215" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D215" s="5"/>
     </row>
-    <row r="216" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="216" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D216" s="5"/>
     </row>
-    <row r="217" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="217" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D217" s="5"/>
     </row>
-    <row r="218" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="218" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D218" s="5"/>
     </row>
-    <row r="219" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="219" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D219" s="5"/>
     </row>
-    <row r="220" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="220" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D220" s="5"/>
     </row>
-    <row r="221" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="221" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D221" s="5"/>
     </row>
-    <row r="222" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="222" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D222" s="5"/>
     </row>
-    <row r="223" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="223" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D223" s="5"/>
     </row>
-    <row r="224" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="224" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D224" s="5"/>
     </row>
-    <row r="225" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="225" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D225" s="5"/>
     </row>
-    <row r="226" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="226" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D226" s="5"/>
     </row>
-    <row r="227" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="227" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D227" s="5"/>
     </row>
-    <row r="228" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="228" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D228" s="5"/>
     </row>
-    <row r="229" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="229" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D229" s="5"/>
     </row>
-    <row r="230" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="230" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D230" s="5"/>
     </row>
-    <row r="231" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="231" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D231" s="5"/>
     </row>
-    <row r="232" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="232" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D232" s="5"/>
     </row>
-    <row r="233" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="233" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D233" s="5"/>
     </row>
-    <row r="234" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="234" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D234" s="5"/>
     </row>
-    <row r="235" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="235" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D235" s="5"/>
     </row>
-    <row r="236" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="236" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D236" s="5"/>
     </row>
-    <row r="237" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="237" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D237" s="5"/>
     </row>
-    <row r="238" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="238" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D238" s="5"/>
     </row>
-    <row r="239" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="239" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D239" s="5"/>
     </row>
-    <row r="240" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="240" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D240" s="5"/>
     </row>
-    <row r="241" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="241" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D241" s="5"/>
     </row>
-    <row r="242" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="242" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D242" s="5"/>
     </row>
-    <row r="243" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="243" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D243" s="5"/>
     </row>
-    <row r="244" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="244" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D244" s="5"/>
     </row>
-    <row r="245" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="245" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D245" s="5"/>
     </row>
-    <row r="246" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="246" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D246" s="5"/>
     </row>
-    <row r="247" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="247" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D247" s="5"/>
     </row>
-    <row r="248" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="248" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D248" s="5"/>
     </row>
-    <row r="249" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="249" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D249" s="5"/>
     </row>
-    <row r="250" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="250" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D250" s="5"/>
     </row>
-    <row r="251" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="251" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D251" s="5"/>
     </row>
-    <row r="252" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="252" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D252" s="5"/>
     </row>
-    <row r="253" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="253" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D253" s="5"/>
     </row>
-    <row r="254" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="254" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D254" s="5"/>
     </row>
-    <row r="255" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="255" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D255" s="5"/>
     </row>
-    <row r="256" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="256" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D256" s="5"/>
     </row>
-    <row r="257" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="257" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D257" s="5"/>
     </row>
-    <row r="258" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="258" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D258" s="5"/>
     </row>
-    <row r="259" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="259" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D259" s="5"/>
     </row>
-    <row r="260" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="260" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D260" s="5"/>
     </row>
-    <row r="261" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="261" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D261" s="5"/>
     </row>
-    <row r="262" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="262" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D262" s="5"/>
     </row>
-    <row r="263" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="263" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D263" s="5"/>
     </row>
-    <row r="264" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="264" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D264" s="5"/>
     </row>
-    <row r="265" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="265" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D265" s="5"/>
     </row>
-    <row r="266" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="266" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D266" s="5"/>
     </row>
-    <row r="267" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="267" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D267" s="5"/>
     </row>
-    <row r="268" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="268" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D268" s="5"/>
     </row>
-    <row r="269" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="269" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D269" s="5"/>
     </row>
-    <row r="270" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="270" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D270" s="5"/>
     </row>
-    <row r="271" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="271" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D271" s="5"/>
     </row>
-    <row r="272" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="272" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D272" s="5"/>
     </row>
-    <row r="273" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="273" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D273" s="5"/>
     </row>
-    <row r="274" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="274" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D274" s="5"/>
     </row>
-    <row r="275" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="275" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D275" s="5"/>
     </row>
-    <row r="276" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="276" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D276" s="5"/>
     </row>
-    <row r="277" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="277" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D277" s="5"/>
     </row>
-    <row r="278" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="278" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D278" s="5"/>
     </row>
-    <row r="279" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="279" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D279" s="5"/>
     </row>
-    <row r="280" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="280" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D280" s="5"/>
     </row>
-    <row r="281" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="281" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D281" s="5"/>
     </row>
-    <row r="282" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="282" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D282" s="5"/>
     </row>
-    <row r="283" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="283" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D283" s="5"/>
     </row>
-    <row r="284" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="284" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D284" s="5"/>
     </row>
-    <row r="285" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="285" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D285" s="5"/>
     </row>
-    <row r="286" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="286" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D286" s="5"/>
     </row>
-    <row r="287" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="287" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D287" s="5"/>
     </row>
-    <row r="288" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="288" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D288" s="5"/>
     </row>
-    <row r="289" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="289" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D289" s="5"/>
     </row>
-    <row r="290" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="290" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D290" s="5"/>
     </row>
-    <row r="291" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="291" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D291" s="5"/>
     </row>
-    <row r="292" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="292" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D292" s="5"/>
     </row>
-    <row r="293" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="293" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D293" s="5"/>
     </row>
-    <row r="294" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="294" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D294" s="5"/>
     </row>
-    <row r="295" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="295" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D295" s="5"/>
     </row>
-    <row r="296" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="296" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D296" s="5"/>
     </row>
-    <row r="297" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="297" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D297" s="5"/>
     </row>
-    <row r="298" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="298" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D298" s="5"/>
     </row>
-    <row r="299" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="299" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D299" s="5"/>
     </row>
-    <row r="300" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="300" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D300" s="5"/>
     </row>
-    <row r="301" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="301" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D301" s="5"/>
     </row>
-    <row r="302" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="302" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D302" s="5"/>
     </row>
-    <row r="303" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="303" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D303" s="5"/>
     </row>
-    <row r="304" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="304" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D304" s="5"/>
     </row>
-    <row r="305" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="305" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D305" s="5"/>
     </row>
-    <row r="306" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="306" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D306" s="5"/>
     </row>
-    <row r="307" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="307" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D307" s="5"/>
     </row>
-    <row r="308" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="308" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D308" s="5"/>
     </row>
-    <row r="309" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="309" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D309" s="5"/>
     </row>
-    <row r="310" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="310" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D310" s="5"/>
     </row>
-    <row r="311" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="311" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D311" s="5"/>
     </row>
-    <row r="312" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="312" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D312" s="5"/>
     </row>
-    <row r="313" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="313" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D313" s="5"/>
     </row>
-    <row r="314" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="314" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D314" s="5"/>
     </row>
-    <row r="315" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="315" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D315" s="5"/>
     </row>
-    <row r="316" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="316" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D316" s="5"/>
     </row>
-    <row r="317" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="317" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D317" s="5"/>
     </row>
-    <row r="318" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="318" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D318" s="5"/>
     </row>
-    <row r="319" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="319" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D319" s="5"/>
     </row>
-    <row r="320" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="320" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D320" s="5"/>
     </row>
-    <row r="321" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="321" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D321" s="5"/>
     </row>
-    <row r="322" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="322" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D322" s="5"/>
     </row>
-    <row r="323" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="323" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D323" s="5"/>
     </row>
-    <row r="324" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="324" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D324" s="5"/>
     </row>
-    <row r="325" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="325" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D325" s="5"/>
     </row>
-    <row r="326" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="326" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D326" s="5"/>
     </row>
-    <row r="327" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="327" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D327" s="5"/>
     </row>
-    <row r="328" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="328" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D328" s="5"/>
     </row>
-    <row r="329" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="329" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D329" s="5"/>
     </row>
-    <row r="330" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="330" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D330" s="5"/>
     </row>
-    <row r="331" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="331" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D331" s="5"/>
     </row>
-    <row r="332" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="332" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D332" s="5"/>
     </row>
-    <row r="333" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="333" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D333" s="5"/>
     </row>
-    <row r="334" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="334" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D334" s="5"/>
     </row>
-    <row r="335" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="335" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D335" s="5"/>
     </row>
-    <row r="336" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="336" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D336" s="5"/>
     </row>
-    <row r="337" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="337" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D337" s="5"/>
     </row>
-    <row r="338" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="338" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D338" s="5"/>
     </row>
-    <row r="339" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="339" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D339" s="5"/>
     </row>
-    <row r="340" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="340" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D340" s="5"/>
     </row>
-    <row r="341" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="341" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D341" s="5"/>
     </row>
-    <row r="342" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="342" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D342" s="5"/>
     </row>
-    <row r="343" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="343" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D343" s="5"/>
     </row>
-    <row r="344" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="344" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D344" s="5"/>
     </row>
-    <row r="345" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="345" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D345" s="5"/>
     </row>
-    <row r="346" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="346" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D346" s="5"/>
     </row>
-    <row r="347" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="347" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D347" s="5"/>
     </row>
-    <row r="348" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="348" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D348" s="5"/>
     </row>
-    <row r="349" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="349" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D349" s="5"/>
     </row>
-    <row r="350" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="350" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D350" s="5"/>
     </row>
-    <row r="351" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="351" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D351" s="5"/>
     </row>
-    <row r="352" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="352" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D352" s="5"/>
     </row>
-    <row r="353" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="353" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D353" s="5"/>
     </row>
-    <row r="354" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="354" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D354" s="5"/>
     </row>
-    <row r="355" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="355" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D355" s="5"/>
     </row>
-    <row r="356" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="356" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D356" s="5"/>
     </row>
-    <row r="357" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="357" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D357" s="5"/>
     </row>
-    <row r="358" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="358" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D358" s="5"/>
     </row>
-    <row r="359" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="359" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D359" s="5"/>
     </row>
-    <row r="360" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="360" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D360" s="5"/>
     </row>
-    <row r="361" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="361" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D361" s="5"/>
     </row>
-    <row r="362" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="362" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D362" s="5"/>
     </row>
-    <row r="363" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="363" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D363" s="5"/>
     </row>
-    <row r="364" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="364" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D364" s="5"/>
     </row>
-    <row r="365" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="365" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D365" s="5"/>
     </row>
-    <row r="366" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="366" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D366" s="5"/>
     </row>
-    <row r="367" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="367" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D367" s="5"/>
     </row>
-    <row r="368" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="368" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D368" s="5"/>
     </row>
-    <row r="369" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="369" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D369" s="5"/>
     </row>
-    <row r="370" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="370" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D370" s="5"/>
     </row>
-    <row r="371" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="371" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D371" s="5"/>
     </row>
-    <row r="372" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="372" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D372" s="5"/>
     </row>
-    <row r="373" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="373" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D373" s="5"/>
     </row>
-    <row r="374" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="374" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D374" s="5"/>
     </row>
-    <row r="375" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="375" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D375" s="5"/>
     </row>
-    <row r="376" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="376" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D376" s="5"/>
     </row>
-    <row r="377" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="377" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D377" s="5"/>
     </row>
-    <row r="378" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="378" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D378" s="5"/>
     </row>
-    <row r="379" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="379" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D379" s="5"/>
     </row>
-    <row r="380" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="380" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D380" s="5"/>
     </row>
-    <row r="381" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="381" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D381" s="5"/>
     </row>
-    <row r="382" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="382" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D382" s="5"/>
     </row>
-    <row r="383" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="383" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D383" s="5"/>
     </row>
-    <row r="384" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="384" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D384" s="5"/>
     </row>
-    <row r="385" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="385" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D385" s="5"/>
     </row>
-    <row r="386" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="386" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D386" s="5"/>
     </row>
-    <row r="387" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="387" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D387" s="5"/>
     </row>
-    <row r="388" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="388" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D388" s="5"/>
     </row>
-    <row r="389" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="389" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D389" s="5"/>
     </row>
-    <row r="390" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="390" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D390" s="5"/>
     </row>
-    <row r="391" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="391" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D391" s="5"/>
     </row>
-    <row r="392" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="392" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D392" s="5"/>
     </row>
-    <row r="393" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="393" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D393" s="5"/>
     </row>
-    <row r="394" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="394" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D394" s="5"/>
     </row>
-    <row r="395" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="395" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D395" s="5"/>
     </row>
-    <row r="396" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="396" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D396" s="5"/>
     </row>
-    <row r="397" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="397" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D397" s="5"/>
     </row>
-    <row r="398" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="398" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D398" s="5"/>
     </row>
-    <row r="399" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="399" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D399" s="5"/>
     </row>
-    <row r="400" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="400" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D400" s="5"/>
     </row>
-    <row r="401" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="401" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D401" s="5"/>
     </row>
-    <row r="402" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="402" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D402" s="5"/>
     </row>
-    <row r="403" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="403" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D403" s="5"/>
     </row>
-    <row r="404" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="404" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D404" s="5"/>
     </row>
-    <row r="405" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="405" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D405" s="5"/>
     </row>
-    <row r="406" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="406" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D406" s="5"/>
     </row>
-    <row r="407" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="407" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D407" s="5"/>
     </row>
-    <row r="408" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="408" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D408" s="5"/>
     </row>
-    <row r="409" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="409" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D409" s="5"/>
     </row>
-    <row r="410" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="410" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D410" s="5"/>
     </row>
-    <row r="411" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="411" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D411" s="5"/>
     </row>
-    <row r="412" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="412" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D412" s="5"/>
     </row>
-    <row r="413" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="413" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D413" s="5"/>
     </row>
-    <row r="414" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="414" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D414" s="5"/>
     </row>
-    <row r="415" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="415" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D415" s="5"/>
     </row>
-    <row r="416" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="416" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D416" s="5"/>
     </row>
-    <row r="417" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="417" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D417" s="5"/>
     </row>
-    <row r="418" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="418" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D418" s="5"/>
     </row>
-    <row r="419" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="419" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D419" s="5"/>
     </row>
-    <row r="420" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="420" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D420" s="5"/>
     </row>
-    <row r="421" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="421" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D421" s="5"/>
     </row>
-    <row r="422" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="422" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D422" s="5"/>
     </row>
-    <row r="423" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="423" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D423" s="5"/>
     </row>
-    <row r="424" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="424" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D424" s="5"/>
     </row>
-    <row r="425" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="425" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D425" s="5"/>
     </row>
-    <row r="426" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="426" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D426" s="5"/>
     </row>
-    <row r="427" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="427" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D427" s="5"/>
     </row>
-    <row r="428" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="428" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D428" s="5"/>
     </row>
-    <row r="429" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="429" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D429" s="5"/>
     </row>
-    <row r="430" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="430" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D430" s="5"/>
     </row>
-    <row r="431" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="431" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D431" s="5"/>
     </row>
-    <row r="432" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="432" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D432" s="5"/>
     </row>
-    <row r="433" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="433" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D433" s="5"/>
     </row>
-    <row r="434" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="434" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D434" s="5"/>
     </row>
-    <row r="435" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="435" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D435" s="5"/>
     </row>
-    <row r="436" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="436" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D436" s="5"/>
     </row>
-    <row r="437" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="437" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D437" s="5"/>
     </row>
-    <row r="438" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="438" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D438" s="5"/>
     </row>
-    <row r="439" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="439" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D439" s="5"/>
     </row>
-    <row r="440" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="440" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D440" s="5"/>
     </row>
-    <row r="441" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="441" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D441" s="5"/>
     </row>
-    <row r="442" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="442" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D442" s="5"/>
     </row>
-    <row r="443" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="443" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D443" s="5"/>
     </row>
-    <row r="444" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="444" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D444" s="5"/>
     </row>
-    <row r="445" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="445" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D445" s="5"/>
     </row>
-    <row r="446" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="446" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D446" s="5"/>
     </row>
-    <row r="447" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="447" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D447" s="5"/>
     </row>
-    <row r="448" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="448" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D448" s="5"/>
     </row>
-    <row r="449" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="449" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D449" s="5"/>
     </row>
-    <row r="450" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="450" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D450" s="5"/>
     </row>
-    <row r="451" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="451" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D451" s="5"/>
     </row>
-    <row r="452" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="452" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D452" s="5"/>
     </row>
-    <row r="453" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="453" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D453" s="5"/>
     </row>
-    <row r="454" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="454" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D454" s="5"/>
     </row>
-    <row r="455" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="455" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D455" s="5"/>
     </row>
-    <row r="456" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="456" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D456" s="5"/>
     </row>
-    <row r="457" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="457" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D457" s="5"/>
     </row>
-    <row r="458" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="458" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D458" s="5"/>
     </row>
-    <row r="459" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="459" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D459" s="5"/>
     </row>
-    <row r="460" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="460" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D460" s="5"/>
     </row>
-    <row r="461" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="461" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D461" s="5"/>
     </row>
-    <row r="462" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="462" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D462" s="5"/>
     </row>
-    <row r="463" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="463" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D463" s="5"/>
     </row>
-    <row r="464" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="464" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D464" s="5"/>
     </row>
-    <row r="465" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="465" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D465" s="5"/>
     </row>
-    <row r="466" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="466" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D466" s="5"/>
     </row>
-    <row r="467" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="467" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D467" s="5"/>
     </row>
-    <row r="468" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="468" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D468" s="5"/>
     </row>
-    <row r="469" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="469" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D469" s="5"/>
     </row>
-    <row r="470" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="470" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D470" s="5"/>
     </row>
-    <row r="471" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="471" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D471" s="5"/>
     </row>
-    <row r="472" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="472" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D472" s="5"/>
     </row>
-    <row r="473" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="473" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D473" s="5"/>
     </row>
-    <row r="474" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="474" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D474" s="5"/>
     </row>
-    <row r="475" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="475" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D475" s="5"/>
     </row>
-    <row r="476" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="476" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D476" s="5"/>
     </row>
-    <row r="477" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="477" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D477" s="5"/>
     </row>
-    <row r="478" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="478" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D478" s="5"/>
     </row>
-    <row r="479" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="479" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D479" s="5"/>
     </row>
-    <row r="480" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="480" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D480" s="5"/>
     </row>
-    <row r="481" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="481" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D481" s="5"/>
     </row>
-    <row r="482" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="482" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D482" s="5"/>
     </row>
-    <row r="483" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="483" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D483" s="5"/>
     </row>
-    <row r="484" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="484" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D484" s="5"/>
     </row>
-    <row r="485" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="485" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D485" s="5"/>
     </row>
-    <row r="486" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="486" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D486" s="5"/>
     </row>
-    <row r="487" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="487" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D487" s="5"/>
     </row>
-    <row r="488" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="488" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D488" s="5"/>
     </row>
-    <row r="489" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="489" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D489" s="5"/>
     </row>
-    <row r="490" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="490" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D490" s="5"/>
     </row>
-    <row r="491" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="491" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D491" s="5"/>
     </row>
-    <row r="492" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="492" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D492" s="5"/>
     </row>
-    <row r="493" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="493" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D493" s="5"/>
     </row>
-    <row r="494" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="494" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D494" s="5"/>
     </row>
-    <row r="495" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="495" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D495" s="5"/>
     </row>
-    <row r="496" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="496" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D496" s="5"/>
     </row>
-    <row r="497" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="497" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D497" s="5"/>
     </row>
-    <row r="498" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="498" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D498" s="5"/>
     </row>
-    <row r="499" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="499" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D499" s="5"/>
     </row>
-    <row r="500" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="500" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D500" s="5"/>
     </row>
-    <row r="501" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="501" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D501" s="5"/>
     </row>
-    <row r="502" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="502" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D502" s="5"/>
     </row>
-    <row r="503" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="503" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D503" s="5"/>
     </row>
-    <row r="504" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="504" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D504" s="5"/>
     </row>
-    <row r="505" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="505" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D505" s="5"/>
     </row>
-    <row r="506" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="506" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D506" s="5"/>
     </row>
-    <row r="507" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="507" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D507" s="5"/>
     </row>
-    <row r="508" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="508" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D508" s="5"/>
     </row>
-    <row r="509" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="509" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D509" s="5"/>
     </row>
-    <row r="510" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="510" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D510" s="5"/>
     </row>
-    <row r="511" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="511" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D511" s="5"/>
     </row>
-    <row r="512" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="512" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D512" s="5"/>
     </row>
-    <row r="513" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="513" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D513" s="5"/>
     </row>
-    <row r="514" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="514" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D514" s="5"/>
     </row>
-    <row r="515" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="515" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D515" s="5"/>
     </row>
-    <row r="516" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="516" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D516" s="5"/>
     </row>
-    <row r="517" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="517" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D517" s="5"/>
     </row>
-    <row r="518" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="518" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D518" s="5"/>
     </row>
-    <row r="519" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="519" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D519" s="5"/>
     </row>
-    <row r="520" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="520" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D520" s="5"/>
     </row>
-    <row r="521" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="521" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D521" s="5"/>
     </row>
-    <row r="522" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="522" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D522" s="5"/>
     </row>
-    <row r="523" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="523" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D523" s="5"/>
     </row>
-    <row r="524" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="524" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D524" s="5"/>
     </row>
-    <row r="525" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="525" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D525" s="5"/>
     </row>
-    <row r="526" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="526" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D526" s="5"/>
     </row>
-    <row r="527" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="527" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D527" s="5"/>
     </row>
-    <row r="528" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="528" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D528" s="5"/>
     </row>
-    <row r="529" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="529" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D529" s="5"/>
     </row>
-    <row r="530" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="530" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D530" s="5"/>
     </row>
-    <row r="531" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="531" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D531" s="5"/>
     </row>
-    <row r="532" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="532" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D532" s="5"/>
     </row>
-    <row r="533" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="533" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D533" s="5"/>
     </row>
-    <row r="534" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="534" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D534" s="5"/>
     </row>
-    <row r="535" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="535" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D535" s="5"/>
     </row>
-    <row r="536" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="536" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D536" s="5"/>
     </row>
-    <row r="537" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="537" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D537" s="5"/>
     </row>
-    <row r="538" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="538" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D538" s="5"/>
     </row>
-    <row r="539" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="539" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D539" s="5"/>
     </row>
-    <row r="540" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="540" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D540" s="5"/>
     </row>
-    <row r="541" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="541" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D541" s="5"/>
     </row>
-    <row r="542" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="542" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D542" s="5"/>
     </row>
-    <row r="543" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="543" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D543" s="5"/>
     </row>
-    <row r="544" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="544" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D544" s="5"/>
     </row>
-    <row r="545" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="545" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D545" s="5"/>
     </row>
-    <row r="546" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="546" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D546" s="5"/>
     </row>
-    <row r="547" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="547" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D547" s="5"/>
     </row>
-    <row r="548" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="548" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D548" s="5"/>
     </row>
-    <row r="549" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="549" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D549" s="5"/>
     </row>
-    <row r="550" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="550" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D550" s="5"/>
     </row>
-    <row r="551" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="551" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D551" s="5"/>
     </row>
-    <row r="552" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="552" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D552" s="5"/>
     </row>
-    <row r="553" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="553" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D553" s="5"/>
     </row>
-    <row r="554" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="554" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D554" s="5"/>
     </row>
-    <row r="555" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="555" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D555" s="5"/>
     </row>
-    <row r="556" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="556" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D556" s="5"/>
     </row>
-    <row r="557" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="557" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D557" s="5"/>
     </row>
-    <row r="558" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="558" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D558" s="5"/>
     </row>
-    <row r="559" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="559" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D559" s="5"/>
     </row>
-    <row r="560" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="560" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D560" s="5"/>
     </row>
-    <row r="561" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="561" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D561" s="5"/>
     </row>
-    <row r="562" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="562" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D562" s="5"/>
     </row>
-    <row r="563" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="563" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D563" s="5"/>
     </row>
-    <row r="564" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="564" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D564" s="5"/>
     </row>
-    <row r="565" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="565" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D565" s="5"/>
     </row>
-    <row r="566" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="566" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D566" s="5"/>
     </row>
-    <row r="567" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="567" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D567" s="5"/>
     </row>
-    <row r="568" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="568" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D568" s="5"/>
     </row>
-    <row r="569" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="569" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D569" s="5"/>
     </row>
-    <row r="570" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="570" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D570" s="5"/>
     </row>
-    <row r="571" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="571" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D571" s="5"/>
     </row>
-    <row r="572" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="572" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D572" s="5"/>
     </row>
-    <row r="573" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="573" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D573" s="5"/>
     </row>
-    <row r="574" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="574" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D574" s="5"/>
     </row>
-    <row r="575" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="575" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D575" s="5"/>
     </row>
-    <row r="576" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="576" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D576" s="5"/>
     </row>
-    <row r="577" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="577" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D577" s="5"/>
     </row>
-    <row r="578" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="578" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D578" s="5"/>
     </row>
-    <row r="579" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="579" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D579" s="5"/>
     </row>
-    <row r="580" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="580" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D580" s="5"/>
     </row>
-    <row r="581" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="581" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D581" s="5"/>
     </row>
-    <row r="582" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="582" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D582" s="5"/>
     </row>
-    <row r="583" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="583" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D583" s="5"/>
     </row>
-    <row r="584" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="584" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D584" s="5"/>
     </row>
-    <row r="585" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="585" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D585" s="5"/>
     </row>
-    <row r="586" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="586" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D586" s="5"/>
     </row>
-    <row r="587" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="587" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D587" s="5"/>
     </row>
-    <row r="588" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="588" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D588" s="5"/>
     </row>
-    <row r="589" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="589" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D589" s="5"/>
     </row>
-    <row r="590" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="590" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D590" s="5"/>
     </row>
-    <row r="591" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="591" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D591" s="5"/>
     </row>
-    <row r="592" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="592" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D592" s="5"/>
     </row>
-    <row r="593" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="593" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D593" s="5"/>
     </row>
-    <row r="594" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="594" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D594" s="5"/>
     </row>
-    <row r="595" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="595" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D595" s="5"/>
     </row>
-    <row r="596" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="596" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D596" s="5"/>
     </row>
-    <row r="597" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="597" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D597" s="5"/>
     </row>
-    <row r="598" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="598" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D598" s="5"/>
     </row>
-    <row r="599" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="599" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D599" s="5"/>
     </row>
-    <row r="600" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="600" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D600" s="5"/>
     </row>
-    <row r="601" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="601" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D601" s="5"/>
     </row>
-    <row r="602" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="602" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D602" s="5"/>
     </row>
-    <row r="603" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="603" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D603" s="5"/>
     </row>
-    <row r="604" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="604" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D604" s="5"/>
     </row>
-    <row r="605" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="605" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D605" s="5"/>
     </row>
-    <row r="606" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="606" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D606" s="5"/>
     </row>
-    <row r="607" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="607" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D607" s="5"/>
     </row>
-    <row r="608" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="608" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D608" s="5"/>
     </row>
-    <row r="609" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="609" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D609" s="5"/>
     </row>
-    <row r="610" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="610" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D610" s="5"/>
     </row>
-    <row r="611" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="611" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D611" s="5"/>
     </row>
-    <row r="612" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="612" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D612" s="5"/>
     </row>
-    <row r="613" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="613" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D613" s="5"/>
     </row>
-    <row r="614" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="614" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D614" s="5"/>
     </row>
-    <row r="615" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="615" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D615" s="5"/>
     </row>
-    <row r="616" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="616" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D616" s="5"/>
     </row>
-    <row r="617" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="617" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D617" s="5"/>
     </row>
-    <row r="618" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="618" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D618" s="5"/>
     </row>
-    <row r="619" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="619" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D619" s="5"/>
     </row>
-    <row r="620" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="620" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D620" s="5"/>
     </row>
-    <row r="621" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="621" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D621" s="5"/>
     </row>
-    <row r="622" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="622" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D622" s="5"/>
     </row>
-    <row r="623" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="623" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D623" s="5"/>
     </row>
-    <row r="624" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="624" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D624" s="5"/>
     </row>
-    <row r="625" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="625" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D625" s="5"/>
     </row>
-    <row r="626" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="626" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D626" s="5"/>
     </row>
-    <row r="627" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="627" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D627" s="5"/>
     </row>
-    <row r="628" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="628" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D628" s="5"/>
     </row>
-    <row r="629" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="629" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D629" s="5"/>
     </row>
-    <row r="630" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="630" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D630" s="5"/>
     </row>
-    <row r="631" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="631" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D631" s="5"/>
     </row>
-    <row r="632" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="632" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D632" s="5"/>
     </row>
-    <row r="633" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="633" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D633" s="5"/>
     </row>
-    <row r="634" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="634" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D634" s="5"/>
     </row>
-    <row r="635" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="635" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D635" s="5"/>
     </row>
-    <row r="636" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="636" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D636" s="5"/>
     </row>
-    <row r="637" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="637" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D637" s="5"/>
     </row>
-    <row r="638" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="638" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D638" s="5"/>
     </row>
-    <row r="639" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="639" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D639" s="5"/>
     </row>
-    <row r="640" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="640" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D640" s="5"/>
     </row>
-    <row r="641" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="641" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D641" s="5"/>
     </row>
-    <row r="642" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="642" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D642" s="5"/>
     </row>
-    <row r="643" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="643" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D643" s="5"/>
     </row>
-    <row r="644" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="644" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D644" s="5"/>
     </row>
-    <row r="645" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="645" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D645" s="5"/>
     </row>
-    <row r="646" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="646" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D646" s="5"/>
     </row>
-    <row r="647" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="647" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D647" s="5"/>
     </row>
-    <row r="648" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="648" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D648" s="5"/>
     </row>
-    <row r="649" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="649" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D649" s="5"/>
     </row>
-    <row r="650" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="650" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D650" s="5"/>
     </row>
-    <row r="651" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="651" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D651" s="5"/>
     </row>
-    <row r="652" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="652" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D652" s="5"/>
     </row>
-    <row r="653" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="653" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D653" s="5"/>
     </row>
-    <row r="654" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="654" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D654" s="5"/>
     </row>
-    <row r="655" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="655" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D655" s="5"/>
     </row>
-    <row r="656" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="656" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D656" s="5"/>
     </row>
-    <row r="657" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="657" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D657" s="5"/>
     </row>
-    <row r="658" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="658" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D658" s="5"/>
     </row>
-    <row r="659" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="659" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D659" s="5"/>
     </row>
-    <row r="660" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="660" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D660" s="5"/>
     </row>
-    <row r="661" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="661" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D661" s="5"/>
     </row>
-    <row r="662" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="662" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D662" s="5"/>
     </row>
-    <row r="663" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="663" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D663" s="5"/>
     </row>
-    <row r="664" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="664" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D664" s="5"/>
     </row>
-    <row r="665" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="665" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D665" s="5"/>
     </row>
-    <row r="666" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="666" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D666" s="5"/>
     </row>
-    <row r="667" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="667" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D667" s="5"/>
     </row>
-    <row r="668" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="668" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D668" s="5"/>
     </row>
-    <row r="669" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="669" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D669" s="5"/>
     </row>
-    <row r="670" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="670" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D670" s="5"/>
     </row>
-    <row r="671" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="671" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D671" s="5"/>
     </row>
-    <row r="672" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="672" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D672" s="5"/>
     </row>
-    <row r="673" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="673" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D673" s="5"/>
     </row>
-    <row r="674" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="674" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D674" s="5"/>
     </row>
-    <row r="675" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="675" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D675" s="5"/>
     </row>
-    <row r="676" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="676" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D676" s="5"/>
     </row>
-    <row r="677" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="677" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D677" s="5"/>
     </row>
-    <row r="678" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="678" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D678" s="5"/>
     </row>
-    <row r="679" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="679" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D679" s="5"/>
     </row>
-    <row r="680" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="680" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D680" s="5"/>
     </row>
-    <row r="681" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="681" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D681" s="5"/>
     </row>
-    <row r="682" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="682" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D682" s="5"/>
     </row>
-    <row r="683" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="683" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D683" s="5"/>
     </row>
-    <row r="684" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="684" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D684" s="5"/>
     </row>
-    <row r="685" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="685" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D685" s="5"/>
     </row>
-    <row r="686" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="686" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D686" s="5"/>
     </row>
-    <row r="687" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="687" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D687" s="5"/>
     </row>
-    <row r="688" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="688" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D688" s="5"/>
     </row>
-    <row r="689" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="689" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D689" s="5"/>
     </row>
-    <row r="690" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="690" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D690" s="5"/>
     </row>
-    <row r="691" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="691" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D691" s="5"/>
     </row>
-    <row r="692" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="692" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D692" s="5"/>
     </row>
-    <row r="693" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="693" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D693" s="5"/>
     </row>
-    <row r="694" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="694" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D694" s="5"/>
     </row>
-    <row r="695" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="695" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D695" s="5"/>
     </row>
-    <row r="696" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="696" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D696" s="5"/>
     </row>
-    <row r="697" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="697" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D697" s="5"/>
     </row>
-    <row r="698" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="698" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D698" s="5"/>
     </row>
-    <row r="699" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="699" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D699" s="5"/>
     </row>
-    <row r="700" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="700" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D700" s="5"/>
     </row>
-    <row r="701" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="701" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D701" s="5"/>
     </row>
-    <row r="702" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="702" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D702" s="5"/>
     </row>
-    <row r="703" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="703" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D703" s="5"/>
     </row>
-    <row r="704" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="704" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D704" s="5"/>
     </row>
-    <row r="705" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="705" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D705" s="5"/>
     </row>
-    <row r="706" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="706" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D706" s="5"/>
     </row>
-    <row r="707" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="707" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D707" s="5"/>
     </row>
-    <row r="708" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="708" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D708" s="5"/>
     </row>
-    <row r="709" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="709" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D709" s="5"/>
     </row>
-    <row r="710" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="710" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D710" s="5"/>
     </row>
-    <row r="711" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="711" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D711" s="5"/>
     </row>
-    <row r="712" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="712" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D712" s="5"/>
     </row>
-    <row r="713" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="713" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D713" s="5"/>
     </row>
-    <row r="714" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="714" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D714" s="5"/>
     </row>
-    <row r="715" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="715" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D715" s="5"/>
     </row>
-    <row r="716" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="716" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D716" s="5"/>
     </row>
-    <row r="717" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="717" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D717" s="5"/>
     </row>
-    <row r="718" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="718" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D718" s="5"/>
     </row>
-    <row r="719" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="719" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D719" s="5"/>
     </row>
-    <row r="720" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="720" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D720" s="5"/>
     </row>
-    <row r="721" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="721" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D721" s="5"/>
     </row>
-    <row r="722" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="722" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D722" s="5"/>
     </row>
-    <row r="723" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="723" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D723" s="5"/>
     </row>
-    <row r="724" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="724" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D724" s="5"/>
     </row>
-    <row r="725" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="725" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D725" s="5"/>
     </row>
-    <row r="726" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="726" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D726" s="5"/>
     </row>
-    <row r="727" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="727" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D727" s="5"/>
     </row>
-    <row r="728" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="728" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D728" s="5"/>
     </row>
-    <row r="729" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="729" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D729" s="5"/>
     </row>
-    <row r="730" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="730" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D730" s="5"/>
     </row>
-    <row r="731" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="731" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D731" s="5"/>
     </row>
-    <row r="732" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="732" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D732" s="5"/>
     </row>
-    <row r="733" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="733" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D733" s="5"/>
     </row>
-    <row r="734" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="734" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D734" s="5"/>
     </row>
-    <row r="735" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="735" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D735" s="5"/>
     </row>
-    <row r="736" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="736" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D736" s="5"/>
     </row>
-    <row r="737" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="737" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D737" s="5"/>
     </row>
-    <row r="738" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="738" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D738" s="5"/>
     </row>
-    <row r="739" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="739" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D739" s="5"/>
     </row>
-    <row r="740" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="740" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D740" s="5"/>
     </row>
-    <row r="741" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="741" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D741" s="5"/>
     </row>
-    <row r="742" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="742" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D742" s="5"/>
     </row>
-    <row r="743" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="743" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D743" s="5"/>
     </row>
-    <row r="744" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="744" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D744" s="5"/>
     </row>
-    <row r="745" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="745" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D745" s="5"/>
     </row>
-    <row r="746" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="746" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D746" s="5"/>
     </row>
-    <row r="747" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="747" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D747" s="5"/>
     </row>
-    <row r="748" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="748" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D748" s="5"/>
     </row>
-    <row r="749" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="749" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D749" s="5"/>
     </row>
-    <row r="750" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="750" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D750" s="5"/>
     </row>
-    <row r="751" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="751" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D751" s="5"/>
     </row>
-    <row r="752" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="752" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D752" s="5"/>
     </row>
-    <row r="753" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="753" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D753" s="5"/>
     </row>
-    <row r="754" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="754" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D754" s="5"/>
     </row>
-    <row r="755" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="755" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D755" s="5"/>
     </row>
-    <row r="756" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="756" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D756" s="5"/>
     </row>
-    <row r="757" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="757" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D757" s="5"/>
     </row>
-    <row r="758" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="758" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D758" s="5"/>
     </row>
-    <row r="759" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="759" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D759" s="5"/>
     </row>
-    <row r="760" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="760" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D760" s="5"/>
     </row>
-    <row r="761" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="761" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D761" s="5"/>
     </row>
-    <row r="762" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="762" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D762" s="5"/>
     </row>
-    <row r="763" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="763" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D763" s="5"/>
     </row>
-    <row r="764" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="764" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D764" s="5"/>
     </row>
-    <row r="765" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="765" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D765" s="5"/>
     </row>
-    <row r="766" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="766" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D766" s="5"/>
     </row>
-    <row r="767" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="767" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D767" s="5"/>
     </row>
-    <row r="768" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="768" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D768" s="5"/>
     </row>
-    <row r="769" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="769" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D769" s="5"/>
     </row>
-    <row r="770" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="770" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D770" s="5"/>
     </row>
-    <row r="771" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="771" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D771" s="5"/>
     </row>
-    <row r="772" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="772" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D772" s="5"/>
     </row>
-    <row r="773" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="773" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D773" s="5"/>
     </row>
-    <row r="774" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="774" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D774" s="5"/>
     </row>
-    <row r="775" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="775" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D775" s="5"/>
     </row>
-    <row r="776" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="776" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D776" s="5"/>
     </row>
-    <row r="777" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="777" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D777" s="5"/>
     </row>
-    <row r="778" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="778" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D778" s="5"/>
     </row>
-    <row r="779" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="779" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D779" s="5"/>
     </row>
-    <row r="780" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="780" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D780" s="5"/>
     </row>
-    <row r="781" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="781" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D781" s="5"/>
     </row>
-    <row r="782" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="782" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D782" s="5"/>
     </row>
-    <row r="783" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="783" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D783" s="5"/>
     </row>
-    <row r="784" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="784" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D784" s="5"/>
     </row>
-    <row r="785" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="785" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D785" s="5"/>
     </row>
-    <row r="786" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="786" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D786" s="5"/>
     </row>
-    <row r="787" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="787" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D787" s="5"/>
     </row>
-    <row r="788" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="788" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D788" s="5"/>
     </row>
-    <row r="789" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="789" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D789" s="5"/>
     </row>
-    <row r="790" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="790" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D790" s="5"/>
     </row>
-    <row r="791" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="791" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D791" s="5"/>
     </row>
-    <row r="792" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="792" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D792" s="5"/>
     </row>
-    <row r="793" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="793" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D793" s="5"/>
     </row>
-    <row r="794" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="794" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D794" s="5"/>
     </row>
-    <row r="795" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="795" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D795" s="5"/>
     </row>
-    <row r="796" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="796" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D796" s="5"/>
     </row>
-    <row r="797" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="797" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D797" s="5"/>
     </row>
-    <row r="798" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="798" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D798" s="5"/>
     </row>
-    <row r="799" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="799" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D799" s="5"/>
     </row>
-    <row r="800" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="800" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D800" s="5"/>
     </row>
-    <row r="801" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="801" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D801" s="5"/>
     </row>
-    <row r="802" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="802" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D802" s="5"/>
     </row>
-    <row r="803" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="803" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D803" s="5"/>
     </row>
-    <row r="804" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="804" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D804" s="5"/>
     </row>
-    <row r="805" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="805" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D805" s="5"/>
     </row>
-    <row r="806" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="806" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D806" s="5"/>
     </row>
-    <row r="807" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="807" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D807" s="5"/>
     </row>
-    <row r="808" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="808" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D808" s="5"/>
     </row>
-    <row r="809" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="809" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D809" s="5"/>
     </row>
-    <row r="810" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="810" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D810" s="5"/>
     </row>
-    <row r="811" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="811" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D811" s="5"/>
     </row>
-    <row r="812" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="812" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D812" s="5"/>
     </row>
-    <row r="813" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="813" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D813" s="5"/>
     </row>
-    <row r="814" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="814" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D814" s="5"/>
     </row>
-    <row r="815" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="815" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D815" s="5"/>
     </row>
-    <row r="816" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="816" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D816" s="5"/>
     </row>
-    <row r="817" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="817" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D817" s="5"/>
     </row>
-    <row r="818" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="818" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D818" s="5"/>
     </row>
-    <row r="819" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="819" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D819" s="5"/>
     </row>
-    <row r="820" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="820" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D820" s="5"/>
     </row>
-    <row r="821" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="821" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D821" s="5"/>
     </row>
-    <row r="822" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="822" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D822" s="5"/>
     </row>
-    <row r="823" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="823" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D823" s="5"/>
     </row>
-    <row r="824" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="824" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D824" s="5"/>
     </row>
-    <row r="825" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="825" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D825" s="5"/>
     </row>
-    <row r="826" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="826" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D826" s="5"/>
     </row>
-    <row r="827" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="827" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D827" s="5"/>
     </row>
-    <row r="828" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="828" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D828" s="5"/>
     </row>
-    <row r="829" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="829" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D829" s="5"/>
     </row>
-    <row r="830" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="830" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D830" s="5"/>
     </row>
-    <row r="831" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="831" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D831" s="5"/>
     </row>
-    <row r="832" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="832" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D832" s="5"/>
     </row>
-    <row r="833" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="833" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D833" s="5"/>
     </row>
-    <row r="834" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="834" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D834" s="5"/>
     </row>
-    <row r="835" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="835" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D835" s="5"/>
     </row>
-    <row r="836" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="836" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D836" s="5"/>
     </row>
-    <row r="837" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="837" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D837" s="5"/>
     </row>
-    <row r="838" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="838" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D838" s="5"/>
     </row>
-    <row r="839" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="839" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D839" s="5"/>
     </row>
-    <row r="840" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="840" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D840" s="5"/>
     </row>
-    <row r="841" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="841" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D841" s="5"/>
     </row>
-    <row r="842" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="842" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D842" s="5"/>
     </row>
-    <row r="843" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="843" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D843" s="5"/>
     </row>
-    <row r="844" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="844" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D844" s="5"/>
     </row>
-    <row r="845" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="845" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D845" s="5"/>
     </row>
-    <row r="846" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="846" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D846" s="5"/>
     </row>
-    <row r="847" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="847" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D847" s="5"/>
     </row>
-    <row r="848" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="848" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D848" s="5"/>
     </row>
-    <row r="849" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="849" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D849" s="5"/>
     </row>
-    <row r="850" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="850" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D850" s="5"/>
     </row>
-    <row r="851" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="851" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D851" s="5"/>
     </row>
-    <row r="852" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="852" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D852" s="5"/>
     </row>
-    <row r="853" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="853" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D853" s="5"/>
     </row>
-    <row r="854" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="854" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D854" s="5"/>
     </row>
-    <row r="855" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="855" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D855" s="5"/>
     </row>
-    <row r="856" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="856" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D856" s="5"/>
     </row>
-    <row r="857" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="857" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D857" s="5"/>
     </row>
-    <row r="858" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="858" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D858" s="5"/>
     </row>
-    <row r="859" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="859" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D859" s="5"/>
     </row>
-    <row r="860" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="860" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D860" s="5"/>
     </row>
-    <row r="861" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="861" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D861" s="5"/>
     </row>
-    <row r="862" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="862" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D862" s="5"/>
     </row>
-    <row r="863" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="863" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D863" s="5"/>
     </row>
-    <row r="864" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="864" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D864" s="5"/>
     </row>
-    <row r="865" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="865" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D865" s="5"/>
     </row>
-    <row r="866" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="866" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D866" s="5"/>
     </row>
-    <row r="867" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="867" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D867" s="5"/>
     </row>
-    <row r="868" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="868" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D868" s="5"/>
     </row>
-    <row r="869" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="869" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D869" s="5"/>
     </row>
-    <row r="870" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="870" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D870" s="5"/>
     </row>
-    <row r="871" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="871" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D871" s="5"/>
     </row>
-    <row r="872" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="872" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D872" s="5"/>
     </row>
-    <row r="873" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="873" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D873" s="5"/>
     </row>
-    <row r="874" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="874" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D874" s="5"/>
     </row>
-    <row r="875" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="875" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D875" s="5"/>
     </row>
-    <row r="876" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="876" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D876" s="5"/>
     </row>
-    <row r="877" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="877" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D877" s="5"/>
     </row>
-    <row r="878" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="878" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D878" s="5"/>
     </row>
-    <row r="879" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="879" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D879" s="5"/>
     </row>
-    <row r="880" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="880" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D880" s="5"/>
     </row>
-    <row r="881" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="881" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D881" s="5"/>
     </row>
-    <row r="882" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="882" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D882" s="5"/>
     </row>
-    <row r="883" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="883" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D883" s="5"/>
     </row>
-    <row r="884" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="884" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D884" s="5"/>
     </row>
-    <row r="885" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="885" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D885" s="5"/>
     </row>
-    <row r="886" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="886" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D886" s="5"/>
     </row>
-    <row r="887" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="887" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D887" s="5"/>
     </row>
-    <row r="888" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="888" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D888" s="5"/>
     </row>
-    <row r="889" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="889" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D889" s="5"/>
     </row>
-    <row r="890" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="890" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D890" s="5"/>
     </row>
-    <row r="891" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="891" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D891" s="5"/>
     </row>
-    <row r="892" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="892" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D892" s="5"/>
     </row>
-    <row r="893" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="893" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D893" s="5"/>
     </row>
-    <row r="894" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="894" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D894" s="5"/>
     </row>
-    <row r="895" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="895" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D895" s="5"/>
     </row>
-    <row r="896" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="896" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D896" s="5"/>
     </row>
-    <row r="897" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="897" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D897" s="5"/>
     </row>
-    <row r="898" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="898" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D898" s="5"/>
     </row>
-    <row r="899" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="899" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D899" s="5"/>
     </row>
-    <row r="900" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="900" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D900" s="5"/>
     </row>
-    <row r="901" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="901" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D901" s="5"/>
     </row>
-    <row r="902" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="902" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D902" s="5"/>
     </row>
-    <row r="903" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="903" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D903" s="5"/>
     </row>
-    <row r="904" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="904" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D904" s="5"/>
     </row>
-    <row r="905" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="905" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D905" s="5"/>
     </row>
-    <row r="906" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="906" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D906" s="5"/>
     </row>
-    <row r="907" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="907" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D907" s="5"/>
     </row>
-    <row r="908" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="908" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D908" s="5"/>
     </row>
-    <row r="909" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="909" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D909" s="5"/>
     </row>
-    <row r="910" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="910" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D910" s="5"/>
     </row>
-    <row r="911" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="911" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D911" s="5"/>
     </row>
-    <row r="912" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="912" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D912" s="5"/>
     </row>
-    <row r="913" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="913" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D913" s="5"/>
     </row>
-    <row r="914" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="914" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D914" s="5"/>
     </row>
-    <row r="915" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="915" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D915" s="5"/>
     </row>
-    <row r="916" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="916" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D916" s="5"/>
     </row>
-    <row r="917" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="917" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D917" s="5"/>
     </row>
-    <row r="918" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="918" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D918" s="5"/>
     </row>
-    <row r="919" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="919" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D919" s="5"/>
     </row>
-    <row r="920" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="920" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D920" s="5"/>
     </row>
-    <row r="921" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="921" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D921" s="5"/>
     </row>
-    <row r="922" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="922" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D922" s="5"/>
     </row>
-    <row r="923" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="923" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D923" s="5"/>
     </row>
-    <row r="924" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="924" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D924" s="5"/>
     </row>
-    <row r="925" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="925" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D925" s="5"/>
     </row>
-    <row r="926" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="926" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D926" s="5"/>
     </row>
-    <row r="927" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="927" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D927" s="5"/>
     </row>
-    <row r="928" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="928" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D928" s="5"/>
     </row>
-    <row r="929" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="929" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D929" s="5"/>
     </row>
-    <row r="930" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="930" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D930" s="5"/>
     </row>
-    <row r="931" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="931" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D931" s="5"/>
     </row>
-    <row r="932" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="932" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D932" s="5"/>
     </row>
-    <row r="933" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="933" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D933" s="5"/>
     </row>
-    <row r="934" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="934" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D934" s="5"/>
     </row>
-    <row r="935" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="935" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D935" s="5"/>
     </row>
-    <row r="936" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="936" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D936" s="5"/>
     </row>
-    <row r="937" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="937" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D937" s="5"/>
     </row>
-    <row r="938" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="938" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D938" s="5"/>
     </row>
-    <row r="939" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="939" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D939" s="5"/>
     </row>
-    <row r="940" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="940" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D940" s="5"/>
     </row>
-    <row r="941" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="941" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D941" s="5"/>
     </row>
-    <row r="942" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="942" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D942" s="5"/>
     </row>
-    <row r="943" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="943" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D943" s="5"/>
     </row>
-    <row r="944" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="944" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D944" s="5"/>
     </row>
-    <row r="945" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="945" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D945" s="5"/>
     </row>
-    <row r="946" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="946" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D946" s="5"/>
     </row>
-    <row r="947" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="947" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D947" s="5"/>
     </row>
-    <row r="948" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="948" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D948" s="5"/>
     </row>
-    <row r="949" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="949" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D949" s="5"/>
     </row>
-    <row r="950" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="950" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D950" s="5"/>
     </row>
-    <row r="951" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="951" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D951" s="5"/>
     </row>
-    <row r="952" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="952" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D952" s="5"/>
     </row>
-    <row r="953" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="953" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D953" s="5"/>
     </row>
-    <row r="954" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="954" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D954" s="5"/>
     </row>
-    <row r="955" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="955" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D955" s="5"/>
     </row>
-    <row r="956" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="956" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D956" s="5"/>
     </row>
-    <row r="957" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="957" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D957" s="5"/>
     </row>
-    <row r="958" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="958" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D958" s="5"/>
     </row>
-    <row r="959" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="959" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D959" s="5"/>
     </row>
-    <row r="960" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="960" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D960" s="5"/>
     </row>
-    <row r="961" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="961" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D961" s="5"/>
     </row>
-    <row r="962" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="962" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D962" s="5"/>
     </row>
-    <row r="963" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="963" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D963" s="5"/>
     </row>
-    <row r="964" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="964" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D964" s="5"/>
     </row>
-    <row r="965" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="965" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D965" s="5"/>
     </row>
-    <row r="966" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="966" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D966" s="5"/>
     </row>
-    <row r="967" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="967" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D967" s="5"/>
     </row>
-    <row r="968" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="968" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D968" s="5"/>
     </row>
-    <row r="969" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="969" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D969" s="5"/>
     </row>
-    <row r="970" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="970" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D970" s="5"/>
     </row>
-    <row r="971" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="971" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D971" s="5"/>
     </row>
-    <row r="972" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="972" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D972" s="5"/>
     </row>
-    <row r="973" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="973" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D973" s="5"/>
     </row>
-    <row r="974" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="974" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D974" s="5"/>
     </row>
-    <row r="975" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="975" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D975" s="5"/>
     </row>
-    <row r="976" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="976" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D976" s="5"/>
     </row>
-    <row r="977" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="977" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D977" s="5"/>
     </row>
-    <row r="978" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="978" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D978" s="5"/>
     </row>
-    <row r="979" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="979" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D979" s="5"/>
     </row>
-    <row r="980" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="980" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D980" s="5"/>
     </row>
-    <row r="981" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="981" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D981" s="5"/>
     </row>
-    <row r="982" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="982" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D982" s="5"/>
     </row>
-    <row r="983" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="983" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D983" s="5"/>
     </row>
-    <row r="984" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="984" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D984" s="5"/>
     </row>
-    <row r="985" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="985" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D985" s="5"/>
     </row>
-    <row r="986" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="986" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D986" s="5"/>
     </row>
-    <row r="987" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="987" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D987" s="5"/>
     </row>
-    <row r="988" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="988" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D988" s="5"/>
     </row>
-    <row r="989" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="989" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D989" s="5"/>
     </row>
-    <row r="990" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="990" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D990" s="5"/>
     </row>
-    <row r="991" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="991" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D991" s="5"/>
     </row>
-    <row r="992" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="992" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D992" s="5"/>
     </row>
-    <row r="993" spans="4:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="993" spans="4:4" ht="13" x14ac:dyDescent="0.15">
       <c r="D993" s="5"/>
     </row>
   </sheetData>
